--- a/web_prototype/ROC_test.xlsx
+++ b/web_prototype/ROC_test.xlsx
@@ -370,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0108695652173913</v>
       </c>
     </row>
     <row r="4">
@@ -378,7 +378,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0326086956521739</v>
+        <v>0.0217391304347826</v>
       </c>
     </row>
     <row r="5">
@@ -386,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0543478260869565</v>
+        <v>0.0326086956521739</v>
       </c>
     </row>
     <row r="6">
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.0434782608695652</v>
       </c>
     </row>
     <row r="7">
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0760869565217391</v>
+        <v>0.0543478260869565</v>
       </c>
     </row>
     <row r="8">
@@ -410,7 +410,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.0652173913043478</v>
       </c>
     </row>
     <row r="9">
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0978260869565217</v>
+        <v>0.0760869565217391</v>
       </c>
     </row>
     <row r="10">
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.108695652173913</v>
+        <v>0.0869565217391304</v>
       </c>
     </row>
     <row r="11">
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.119565217391304</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="12">
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.130434782608696</v>
+        <v>0.119565217391304</v>
       </c>
     </row>
     <row r="13">
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.141304347826087</v>
+        <v>0.130434782608696</v>
       </c>
     </row>
     <row r="14">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.152173913043478</v>
+        <v>0.141304347826087</v>
       </c>
     </row>
     <row r="15">
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.16304347826087</v>
+        <v>0.152173913043478</v>
       </c>
     </row>
     <row r="16">
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.173913043478261</v>
+        <v>0.16304347826087</v>
       </c>
     </row>
     <row r="17">
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.184782608695652</v>
+        <v>0.173913043478261</v>
       </c>
     </row>
     <row r="18">
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.195652173913043</v>
+        <v>0.184782608695652</v>
       </c>
     </row>
     <row r="19">
@@ -631,26 +631,26 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0044543429844098</v>
+        <v>0.0022271714922049</v>
       </c>
       <c r="B36" t="n">
-        <v>0.369565217391304</v>
+        <v>0.380434782608696</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.0044543429844098</v>
+        <v>0.0022271714922049</v>
       </c>
       <c r="B37" t="n">
-        <v>0.380434782608696</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0044543429844098</v>
+        <v>0.0022271714922049</v>
       </c>
       <c r="B38" t="n">
-        <v>0.391304347826087</v>
+        <v>0.402173913043478</v>
       </c>
     </row>
     <row r="39">
@@ -687,10 +687,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0066815144766147</v>
+        <v>0.0044543429844098</v>
       </c>
       <c r="B43" t="n">
-        <v>0.434782608695652</v>
+        <v>0.445652173913043</v>
       </c>
     </row>
     <row r="44">
@@ -711,18 +711,18 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0111358574610245</v>
+        <v>0.0089086859688196</v>
       </c>
       <c r="B46" t="n">
-        <v>0.445652173913043</v>
+        <v>0.456521739130435</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0111358574610245</v>
+        <v>0.0089086859688196</v>
       </c>
       <c r="B47" t="n">
-        <v>0.456521739130435</v>
+        <v>0.467391304347826</v>
       </c>
     </row>
     <row r="48">
@@ -759,10 +759,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.0133630289532294</v>
+        <v>0.0111358574610245</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5</v>
+        <v>0.510869565217391</v>
       </c>
     </row>
     <row r="53">
@@ -775,18 +775,18 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.0133630289532294</v>
+        <v>0.0155902004454343</v>
       </c>
       <c r="B54" t="n">
-        <v>0.521739130434783</v>
+        <v>0.510869565217391</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0133630289532294</v>
+        <v>0.0155902004454343</v>
       </c>
       <c r="B55" t="n">
-        <v>0.532608695652174</v>
+        <v>0.521739130434783</v>
       </c>
     </row>
     <row r="56">
@@ -799,18 +799,18 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.0155902004454343</v>
+        <v>0.0178173719376392</v>
       </c>
       <c r="B57" t="n">
-        <v>0.543478260869565</v>
+        <v>0.532608695652174</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.0178173719376392</v>
+        <v>0.0200445434298441</v>
       </c>
       <c r="B58" t="n">
-        <v>0.543478260869565</v>
+        <v>0.532608695652174</v>
       </c>
     </row>
     <row r="59">
@@ -823,186 +823,186 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.022271714922049</v>
+        <v>0.0200445434298441</v>
       </c>
       <c r="B60" t="n">
-        <v>0.543478260869565</v>
+        <v>0.554347826086957</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.0244988864142539</v>
+        <v>0.022271714922049</v>
       </c>
       <c r="B61" t="n">
-        <v>0.543478260869565</v>
+        <v>0.554347826086957</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.0267260579064588</v>
+        <v>0.022271714922049</v>
       </c>
       <c r="B62" t="n">
-        <v>0.543478260869565</v>
+        <v>0.565217391304348</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0267260579064588</v>
+        <v>0.022271714922049</v>
       </c>
       <c r="B63" t="n">
-        <v>0.554347826086957</v>
+        <v>0.576086956521739</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0289532293986637</v>
+        <v>0.022271714922049</v>
       </c>
       <c r="B64" t="n">
-        <v>0.554347826086957</v>
+        <v>0.58695652173913</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0311804008908686</v>
+        <v>0.0244988864142539</v>
       </c>
       <c r="B65" t="n">
-        <v>0.554347826086957</v>
+        <v>0.58695652173913</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.0334075723830735</v>
+        <v>0.0267260579064588</v>
       </c>
       <c r="B66" t="n">
-        <v>0.554347826086957</v>
+        <v>0.58695652173913</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0334075723830735</v>
+        <v>0.0267260579064588</v>
       </c>
       <c r="B67" t="n">
-        <v>0.565217391304348</v>
+        <v>0.597826086956522</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0334075723830735</v>
+        <v>0.0289532293986637</v>
       </c>
       <c r="B68" t="n">
-        <v>0.576086956521739</v>
+        <v>0.597826086956522</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.0356347438752784</v>
+        <v>0.0289532293986637</v>
       </c>
       <c r="B69" t="n">
-        <v>0.576086956521739</v>
+        <v>0.608695652173913</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0356347438752784</v>
+        <v>0.0311804008908686</v>
       </c>
       <c r="B70" t="n">
-        <v>0.58695652173913</v>
+        <v>0.608695652173913</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.0378619153674833</v>
+        <v>0.0334075723830735</v>
       </c>
       <c r="B71" t="n">
-        <v>0.58695652173913</v>
+        <v>0.608695652173913</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0400890868596882</v>
+        <v>0.0334075723830735</v>
       </c>
       <c r="B72" t="n">
-        <v>0.58695652173913</v>
+        <v>0.619565217391304</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.0400890868596882</v>
+        <v>0.0356347438752784</v>
       </c>
       <c r="B73" t="n">
-        <v>0.597826086956522</v>
+        <v>0.619565217391304</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.0423162583518931</v>
+        <v>0.0378619153674833</v>
       </c>
       <c r="B74" t="n">
-        <v>0.597826086956522</v>
+        <v>0.619565217391304</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.044543429844098</v>
+        <v>0.0378619153674833</v>
       </c>
       <c r="B75" t="n">
-        <v>0.597826086956522</v>
+        <v>0.630434782608696</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.0467706013363029</v>
+        <v>0.0400890868596882</v>
       </c>
       <c r="B76" t="n">
-        <v>0.597826086956522</v>
+        <v>0.630434782608696</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.0467706013363029</v>
+        <v>0.0400890868596882</v>
       </c>
       <c r="B77" t="n">
-        <v>0.608695652173913</v>
+        <v>0.641304347826087</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.0467706013363029</v>
+        <v>0.0423162583518931</v>
       </c>
       <c r="B78" t="n">
-        <v>0.619565217391304</v>
+        <v>0.641304347826087</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.0467706013363029</v>
+        <v>0.0423162583518931</v>
       </c>
       <c r="B79" t="n">
-        <v>0.630434782608696</v>
+        <v>0.652173913043478</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.0467706013363029</v>
+        <v>0.044543429844098</v>
       </c>
       <c r="B80" t="n">
-        <v>0.641304347826087</v>
+        <v>0.652173913043478</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0489977728285078</v>
+        <v>0.0467706013363029</v>
       </c>
       <c r="B81" t="n">
-        <v>0.641304347826087</v>
+        <v>0.652173913043478</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.0489977728285078</v>
+        <v>0.0467706013363029</v>
       </c>
       <c r="B82" t="n">
-        <v>0.652173913043478</v>
+        <v>0.66304347826087</v>
       </c>
     </row>
     <row r="83">
@@ -1023,346 +1023,346 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.0512249443207127</v>
+        <v>0.0534521158129176</v>
       </c>
       <c r="B85" t="n">
-        <v>0.673913043478261</v>
+        <v>0.66304347826087</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.0512249443207127</v>
+        <v>0.0556792873051225</v>
       </c>
       <c r="B86" t="n">
-        <v>0.684782608695652</v>
+        <v>0.66304347826087</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.0534521158129176</v>
+        <v>0.0556792873051225</v>
       </c>
       <c r="B87" t="n">
-        <v>0.684782608695652</v>
+        <v>0.673913043478261</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.0534521158129176</v>
+        <v>0.0556792873051225</v>
       </c>
       <c r="B88" t="n">
-        <v>0.695652173913043</v>
+        <v>0.684782608695652</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.0556792873051225</v>
+        <v>0.0579064587973274</v>
       </c>
       <c r="B89" t="n">
-        <v>0.695652173913043</v>
+        <v>0.684782608695652</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.0556792873051225</v>
+        <v>0.0579064587973274</v>
       </c>
       <c r="B90" t="n">
-        <v>0.706521739130435</v>
+        <v>0.695652173913043</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.0556792873051225</v>
+        <v>0.0579064587973274</v>
       </c>
       <c r="B91" t="n">
-        <v>0.717391304347826</v>
+        <v>0.706521739130435</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.0556792873051225</v>
+        <v>0.0601336302895323</v>
       </c>
       <c r="B92" t="n">
-        <v>0.728260869565217</v>
+        <v>0.706521739130435</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.0579064587973274</v>
+        <v>0.0623608017817372</v>
       </c>
       <c r="B93" t="n">
-        <v>0.728260869565217</v>
+        <v>0.706521739130435</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.0601336302895323</v>
+        <v>0.0645879732739421</v>
       </c>
       <c r="B94" t="n">
-        <v>0.728260869565217</v>
+        <v>0.706521739130435</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.0601336302895323</v>
+        <v>0.066815144766147</v>
       </c>
       <c r="B95" t="n">
-        <v>0.739130434782609</v>
+        <v>0.706521739130435</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.0623608017817372</v>
+        <v>0.066815144766147</v>
       </c>
       <c r="B96" t="n">
-        <v>0.739130434782609</v>
+        <v>0.717391304347826</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.0645879732739421</v>
+        <v>0.0690423162583519</v>
       </c>
       <c r="B97" t="n">
-        <v>0.739130434782609</v>
+        <v>0.717391304347826</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.066815144766147</v>
+        <v>0.0712694877505568</v>
       </c>
       <c r="B98" t="n">
-        <v>0.739130434782609</v>
+        <v>0.717391304347826</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.0690423162583519</v>
+        <v>0.0734966592427617</v>
       </c>
       <c r="B99" t="n">
-        <v>0.739130434782609</v>
+        <v>0.717391304347826</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.0690423162583519</v>
+        <v>0.0734966592427617</v>
       </c>
       <c r="B100" t="n">
-        <v>0.75</v>
+        <v>0.728260869565217</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.0690423162583519</v>
+        <v>0.0734966592427617</v>
       </c>
       <c r="B101" t="n">
-        <v>0.760869565217391</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.0712694877505568</v>
+        <v>0.0757238307349666</v>
       </c>
       <c r="B102" t="n">
-        <v>0.760869565217391</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.0712694877505568</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="B103" t="n">
-        <v>0.771739130434783</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.0712694877505568</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="B104" t="n">
-        <v>0.782608695652174</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.0734966592427617</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="B105" t="n">
-        <v>0.782608695652174</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.0757238307349666</v>
+        <v>0.0824053452115813</v>
       </c>
       <c r="B106" t="n">
-        <v>0.782608695652174</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.0779510022271715</v>
+        <v>0.0846325167037862</v>
       </c>
       <c r="B107" t="n">
-        <v>0.782608695652174</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.0801781737193764</v>
+        <v>0.0868596881959911</v>
       </c>
       <c r="B108" t="n">
-        <v>0.782608695652174</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.0824053452115813</v>
+        <v>0.0868596881959911</v>
       </c>
       <c r="B109" t="n">
-        <v>0.782608695652174</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.0846325167037862</v>
+        <v>0.089086859688196</v>
       </c>
       <c r="B110" t="n">
-        <v>0.782608695652174</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.0868596881959911</v>
+        <v>0.0913140311804009</v>
       </c>
       <c r="B111" t="n">
-        <v>0.782608695652174</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.089086859688196</v>
+        <v>0.0935412026726058</v>
       </c>
       <c r="B112" t="n">
-        <v>0.782608695652174</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.0913140311804009</v>
+        <v>0.0957683741648107</v>
       </c>
       <c r="B113" t="n">
-        <v>0.782608695652174</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.0935412026726058</v>
+        <v>0.0979955456570156</v>
       </c>
       <c r="B114" t="n">
-        <v>0.782608695652174</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.0957683741648107</v>
+        <v>0.10022271714922</v>
       </c>
       <c r="B115" t="n">
-        <v>0.782608695652174</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.0979955456570156</v>
+        <v>0.102449888641425</v>
       </c>
       <c r="B116" t="n">
-        <v>0.782608695652174</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.10022271714922</v>
+        <v>0.102449888641425</v>
       </c>
       <c r="B117" t="n">
-        <v>0.782608695652174</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.102449888641425</v>
+        <v>0.10467706013363</v>
       </c>
       <c r="B118" t="n">
-        <v>0.782608695652174</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.10467706013363</v>
+        <v>0.106904231625835</v>
       </c>
       <c r="B119" t="n">
-        <v>0.782608695652174</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.106904231625835</v>
+        <v>0.10913140311804</v>
       </c>
       <c r="B120" t="n">
-        <v>0.782608695652174</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.10913140311804</v>
+        <v>0.111358574610245</v>
       </c>
       <c r="B121" t="n">
-        <v>0.782608695652174</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.111358574610245</v>
+        <v>0.11358574610245</v>
       </c>
       <c r="B122" t="n">
-        <v>0.782608695652174</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.11358574610245</v>
+        <v>0.115812917594655</v>
       </c>
       <c r="B123" t="n">
-        <v>0.782608695652174</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.115812917594655</v>
+        <v>0.11804008908686</v>
       </c>
       <c r="B124" t="n">
-        <v>0.782608695652174</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.115812917594655</v>
+        <v>0.120267260579065</v>
       </c>
       <c r="B125" t="n">
-        <v>0.793478260869565</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.11804008908686</v>
+        <v>0.122494432071269</v>
       </c>
       <c r="B126" t="n">
-        <v>0.793478260869565</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.120267260579065</v>
+        <v>0.122494432071269</v>
       </c>
       <c r="B127" t="n">
-        <v>0.793478260869565</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="128">
@@ -1375,18 +1375,18 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.122494432071269</v>
+        <v>0.124721603563474</v>
       </c>
       <c r="B129" t="n">
-        <v>0.804347826086957</v>
+        <v>0.793478260869565</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.122494432071269</v>
+        <v>0.124721603563474</v>
       </c>
       <c r="B130" t="n">
-        <v>0.815217391304348</v>
+        <v>0.804347826086957</v>
       </c>
     </row>
     <row r="131">
@@ -1399,7 +1399,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.129175946547884</v>
+        <v>0.126948775055679</v>
       </c>
       <c r="B132" t="n">
         <v>0.815217391304348</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.129175946547884</v>
+        <v>0.126948775055679</v>
       </c>
       <c r="B133" t="n">
         <v>0.826086956521739</v>
@@ -1423,178 +1423,178 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.133630289532294</v>
+        <v>0.131403118040089</v>
       </c>
       <c r="B135" t="n">
-        <v>0.826086956521739</v>
+        <v>0.83695652173913</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.135857461024499</v>
+        <v>0.133630289532294</v>
       </c>
       <c r="B136" t="n">
-        <v>0.826086956521739</v>
+        <v>0.83695652173913</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.138084632516704</v>
+        <v>0.135857461024499</v>
       </c>
       <c r="B137" t="n">
-        <v>0.826086956521739</v>
+        <v>0.83695652173913</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.140311804008909</v>
+        <v>0.138084632516704</v>
       </c>
       <c r="B138" t="n">
-        <v>0.826086956521739</v>
+        <v>0.83695652173913</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.142538975501114</v>
+        <v>0.140311804008909</v>
       </c>
       <c r="B139" t="n">
-        <v>0.826086956521739</v>
+        <v>0.83695652173913</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.144766146993318</v>
+        <v>0.142538975501114</v>
       </c>
       <c r="B140" t="n">
-        <v>0.826086956521739</v>
+        <v>0.83695652173913</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.146993318485523</v>
+        <v>0.144766146993318</v>
       </c>
       <c r="B141" t="n">
-        <v>0.826086956521739</v>
+        <v>0.83695652173913</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.146993318485523</v>
+        <v>0.144766146993318</v>
       </c>
       <c r="B142" t="n">
-        <v>0.83695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.149220489977728</v>
+        <v>0.146993318485523</v>
       </c>
       <c r="B143" t="n">
-        <v>0.83695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.151447661469933</v>
+        <v>0.149220489977728</v>
       </c>
       <c r="B144" t="n">
-        <v>0.83695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.151447661469933</v>
+        <v>0.149220489977728</v>
       </c>
       <c r="B145" t="n">
-        <v>0.847826086956522</v>
+        <v>0.858695652173913</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.153674832962138</v>
+        <v>0.151447661469933</v>
       </c>
       <c r="B146" t="n">
-        <v>0.847826086956522</v>
+        <v>0.858695652173913</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.155902004454343</v>
+        <v>0.153674832962138</v>
       </c>
       <c r="B147" t="n">
-        <v>0.847826086956522</v>
+        <v>0.858695652173913</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.158129175946548</v>
+        <v>0.155902004454343</v>
       </c>
       <c r="B148" t="n">
-        <v>0.847826086956522</v>
+        <v>0.858695652173913</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.160356347438753</v>
+        <v>0.158129175946548</v>
       </c>
       <c r="B149" t="n">
-        <v>0.847826086956522</v>
+        <v>0.858695652173913</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.162583518930958</v>
+        <v>0.160356347438753</v>
       </c>
       <c r="B150" t="n">
-        <v>0.847826086956522</v>
+        <v>0.858695652173913</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.164810690423163</v>
+        <v>0.162583518930958</v>
       </c>
       <c r="B151" t="n">
-        <v>0.847826086956522</v>
+        <v>0.858695652173913</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.167037861915367</v>
+        <v>0.164810690423163</v>
       </c>
       <c r="B152" t="n">
-        <v>0.847826086956522</v>
+        <v>0.858695652173913</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.169265033407572</v>
+        <v>0.164810690423163</v>
       </c>
       <c r="B153" t="n">
-        <v>0.847826086956522</v>
+        <v>0.869565217391304</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.171492204899777</v>
+        <v>0.167037861915367</v>
       </c>
       <c r="B154" t="n">
-        <v>0.847826086956522</v>
+        <v>0.869565217391304</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.171492204899777</v>
+        <v>0.169265033407572</v>
       </c>
       <c r="B155" t="n">
-        <v>0.858695652173913</v>
+        <v>0.869565217391304</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.173719376391982</v>
+        <v>0.171492204899777</v>
       </c>
       <c r="B156" t="n">
-        <v>0.858695652173913</v>
+        <v>0.869565217391304</v>
       </c>
     </row>
     <row r="157">
@@ -1671,10 +1671,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.189309576837416</v>
+        <v>0.191536748329621</v>
       </c>
       <c r="B166" t="n">
-        <v>0.891304347826087</v>
+        <v>0.880434782608696</v>
       </c>
     </row>
     <row r="167">
@@ -1687,34 +1687,34 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.191536748329621</v>
+        <v>0.193763919821826</v>
       </c>
       <c r="B168" t="n">
-        <v>0.902173913043478</v>
+        <v>0.891304347826087</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.193763919821826</v>
+        <v>0.195991091314031</v>
       </c>
       <c r="B169" t="n">
-        <v>0.902173913043478</v>
+        <v>0.891304347826087</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.195991091314031</v>
+        <v>0.198218262806236</v>
       </c>
       <c r="B170" t="n">
-        <v>0.902173913043478</v>
+        <v>0.891304347826087</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.198218262806236</v>
+        <v>0.200445434298441</v>
       </c>
       <c r="B171" t="n">
-        <v>0.902173913043478</v>
+        <v>0.891304347826087</v>
       </c>
     </row>
     <row r="172">
@@ -1727,82 +1727,82 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.200445434298441</v>
+        <v>0.202672605790646</v>
       </c>
       <c r="B173" t="n">
-        <v>0.91304347826087</v>
+        <v>0.902173913043478</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.202672605790646</v>
+        <v>0.204899777282851</v>
       </c>
       <c r="B174" t="n">
-        <v>0.91304347826087</v>
+        <v>0.902173913043478</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.202672605790646</v>
+        <v>0.207126948775056</v>
       </c>
       <c r="B175" t="n">
-        <v>0.923913043478261</v>
+        <v>0.902173913043478</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.204899777282851</v>
+        <v>0.209354120267261</v>
       </c>
       <c r="B176" t="n">
-        <v>0.923913043478261</v>
+        <v>0.902173913043478</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.207126948775056</v>
+        <v>0.209354120267261</v>
       </c>
       <c r="B177" t="n">
-        <v>0.923913043478261</v>
+        <v>0.91304347826087</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.209354120267261</v>
+        <v>0.211581291759465</v>
       </c>
       <c r="B178" t="n">
-        <v>0.923913043478261</v>
+        <v>0.91304347826087</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.211581291759465</v>
+        <v>0.21380846325167</v>
       </c>
       <c r="B179" t="n">
-        <v>0.923913043478261</v>
+        <v>0.91304347826087</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.21380846325167</v>
+        <v>0.216035634743875</v>
       </c>
       <c r="B180" t="n">
-        <v>0.923913043478261</v>
+        <v>0.91304347826087</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.216035634743875</v>
+        <v>0.21826280623608</v>
       </c>
       <c r="B181" t="n">
-        <v>0.923913043478261</v>
+        <v>0.91304347826087</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.21826280623608</v>
+        <v>0.220489977728285</v>
       </c>
       <c r="B182" t="n">
-        <v>0.923913043478261</v>
+        <v>0.91304347826087</v>
       </c>
     </row>
     <row r="183">
@@ -1831,10 +1831,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.224944320712695</v>
+        <v>0.2271714922049</v>
       </c>
       <c r="B186" t="n">
-        <v>0.934782608695652</v>
+        <v>0.923913043478261</v>
       </c>
     </row>
     <row r="187">
@@ -1903,186 +1903,186 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.247216035634744</v>
+        <v>0.242761692650334</v>
       </c>
       <c r="B195" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.249443207126949</v>
+        <v>0.244988864142539</v>
       </c>
       <c r="B196" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.251670378619154</v>
+        <v>0.247216035634744</v>
       </c>
       <c r="B197" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.253897550111359</v>
+        <v>0.249443207126949</v>
       </c>
       <c r="B198" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.256124721603563</v>
+        <v>0.251670378619154</v>
       </c>
       <c r="B199" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.258351893095768</v>
+        <v>0.253897550111359</v>
       </c>
       <c r="B200" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.260579064587973</v>
+        <v>0.256124721603563</v>
       </c>
       <c r="B201" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.262806236080178</v>
+        <v>0.258351893095768</v>
       </c>
       <c r="B202" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.265033407572383</v>
+        <v>0.260579064587973</v>
       </c>
       <c r="B203" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.267260579064588</v>
+        <v>0.262806236080178</v>
       </c>
       <c r="B204" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.269487750556793</v>
+        <v>0.265033407572383</v>
       </c>
       <c r="B205" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.271714922048998</v>
+        <v>0.267260579064588</v>
       </c>
       <c r="B206" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.276169265033408</v>
+        <v>0.269487750556793</v>
       </c>
       <c r="B207" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.278396436525612</v>
+        <v>0.273942093541203</v>
       </c>
       <c r="B208" t="n">
-        <v>0.934782608695652</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.280623608017817</v>
+        <v>0.273942093541203</v>
       </c>
       <c r="B209" t="n">
-        <v>0.934782608695652</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.282850779510022</v>
+        <v>0.276169265033408</v>
       </c>
       <c r="B210" t="n">
-        <v>0.934782608695652</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.285077951002227</v>
+        <v>0.278396436525612</v>
       </c>
       <c r="B211" t="n">
-        <v>0.934782608695652</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.287305122494432</v>
+        <v>0.280623608017817</v>
       </c>
       <c r="B212" t="n">
-        <v>0.934782608695652</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.289532293986637</v>
+        <v>0.282850779510022</v>
       </c>
       <c r="B213" t="n">
-        <v>0.934782608695652</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.291759465478842</v>
+        <v>0.285077951002227</v>
       </c>
       <c r="B214" t="n">
-        <v>0.934782608695652</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.293986636971047</v>
+        <v>0.289532293986637</v>
       </c>
       <c r="B215" t="n">
-        <v>0.934782608695652</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.293986636971047</v>
+        <v>0.291759465478842</v>
       </c>
       <c r="B216" t="n">
-        <v>0.945652173913043</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.296213808463252</v>
+        <v>0.293986636971047</v>
       </c>
       <c r="B217" t="n">
-        <v>0.945652173913043</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="218">
@@ -2135,18 +2135,18 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.309576837416481</v>
+        <v>0.307349665924276</v>
       </c>
       <c r="B224" t="n">
-        <v>0.956521739130435</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.311804008908686</v>
+        <v>0.309576837416481</v>
       </c>
       <c r="B225" t="n">
-        <v>0.956521739130435</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="226">
@@ -2263,338 +2263,338 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.34075723830735</v>
+        <v>0.342984409799555</v>
       </c>
       <c r="B240" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.342984409799555</v>
+        <v>0.345211581291759</v>
       </c>
       <c r="B241" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.345211581291759</v>
+        <v>0.347438752783964</v>
       </c>
       <c r="B242" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.347438752783964</v>
+        <v>0.349665924276169</v>
       </c>
       <c r="B243" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.349665924276169</v>
+        <v>0.351893095768374</v>
       </c>
       <c r="B244" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.351893095768374</v>
+        <v>0.354120267260579</v>
       </c>
       <c r="B245" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.354120267260579</v>
+        <v>0.356347438752784</v>
       </c>
       <c r="B246" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.356347438752784</v>
+        <v>0.358574610244989</v>
       </c>
       <c r="B247" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.358574610244989</v>
+        <v>0.360801781737194</v>
       </c>
       <c r="B248" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.360801781737194</v>
+        <v>0.363028953229399</v>
       </c>
       <c r="B249" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.363028953229399</v>
+        <v>0.365256124721604</v>
       </c>
       <c r="B250" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.365256124721604</v>
+        <v>0.367483296213808</v>
       </c>
       <c r="B251" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.367483296213808</v>
+        <v>0.369710467706013</v>
       </c>
       <c r="B252" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.369710467706013</v>
+        <v>0.371937639198218</v>
       </c>
       <c r="B253" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.371937639198218</v>
+        <v>0.374164810690423</v>
       </c>
       <c r="B254" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.374164810690423</v>
+        <v>0.376391982182628</v>
       </c>
       <c r="B255" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.376391982182628</v>
+        <v>0.378619153674833</v>
       </c>
       <c r="B256" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.378619153674833</v>
+        <v>0.380846325167038</v>
       </c>
       <c r="B257" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.380846325167038</v>
+        <v>0.383073496659243</v>
       </c>
       <c r="B258" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.383073496659243</v>
+        <v>0.385300668151448</v>
       </c>
       <c r="B259" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.385300668151448</v>
+        <v>0.387527839643653</v>
       </c>
       <c r="B260" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.387527839643653</v>
+        <v>0.389755011135857</v>
       </c>
       <c r="B261" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.389755011135857</v>
+        <v>0.391982182628062</v>
       </c>
       <c r="B262" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.391982182628062</v>
+        <v>0.394209354120267</v>
       </c>
       <c r="B263" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.394209354120267</v>
+        <v>0.396436525612472</v>
       </c>
       <c r="B264" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.396436525612472</v>
+        <v>0.398663697104677</v>
       </c>
       <c r="B265" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.398663697104677</v>
+        <v>0.400890868596882</v>
       </c>
       <c r="B266" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.400890868596882</v>
+        <v>0.403118040089087</v>
       </c>
       <c r="B267" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.403118040089087</v>
+        <v>0.405345211581292</v>
       </c>
       <c r="B268" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.405345211581292</v>
+        <v>0.407572383073497</v>
       </c>
       <c r="B269" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.407572383073497</v>
+        <v>0.409799554565702</v>
       </c>
       <c r="B270" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.409799554565702</v>
+        <v>0.412026726057906</v>
       </c>
       <c r="B271" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.412026726057906</v>
+        <v>0.414253897550111</v>
       </c>
       <c r="B272" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.414253897550111</v>
+        <v>0.416481069042316</v>
       </c>
       <c r="B273" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.416481069042316</v>
+        <v>0.418708240534521</v>
       </c>
       <c r="B274" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.418708240534521</v>
+        <v>0.420935412026726</v>
       </c>
       <c r="B275" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.420935412026726</v>
+        <v>0.423162583518931</v>
       </c>
       <c r="B276" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.423162583518931</v>
+        <v>0.425389755011136</v>
       </c>
       <c r="B277" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.425389755011136</v>
+        <v>0.427616926503341</v>
       </c>
       <c r="B278" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.427616926503341</v>
+        <v>0.429844097995546</v>
       </c>
       <c r="B279" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.429844097995546</v>
+        <v>0.432071269487751</v>
       </c>
       <c r="B280" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.432071269487751</v>
+        <v>0.434298440979955</v>
       </c>
       <c r="B281" t="n">
-        <v>0.978260869565217</v>
+        <v>0.967391304347826</v>
       </c>
     </row>
     <row r="282">
@@ -2823,26 +2823,26 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.496659242761693</v>
+        <v>0.494432071269488</v>
       </c>
       <c r="B310" t="n">
-        <v>0.978260869565217</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.498886414253898</v>
+        <v>0.496659242761693</v>
       </c>
       <c r="B311" t="n">
-        <v>0.978260869565217</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.501113585746102</v>
+        <v>0.498886414253898</v>
       </c>
       <c r="B312" t="n">
-        <v>0.978260869565217</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="313">
@@ -3087,7 +3087,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.567928730512249</v>
+        <v>0.56792873051225</v>
       </c>
       <c r="B343" t="n">
         <v>0.989130434782609</v>
@@ -3103,194 +3103,194 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.570155902004454</v>
+        <v>0.572383073496659</v>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.572383073496659</v>
+        <v>0.574610244988864</v>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.574610244988864</v>
+        <v>0.576837416481069</v>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.576837416481069</v>
+        <v>0.579064587973274</v>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.579064587973274</v>
+        <v>0.581291759465479</v>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.581291759465479</v>
+        <v>0.583518930957684</v>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.583518930957684</v>
+        <v>0.585746102449889</v>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.585746102449889</v>
+        <v>0.587973273942094</v>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.587973273942094</v>
+        <v>0.590200445434298</v>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.592427616926503</v>
+        <v>0.594654788418708</v>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.594654788418708</v>
+        <v>0.596881959910913</v>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.596881959910913</v>
+        <v>0.599109131403118</v>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.599109131403118</v>
+        <v>0.601336302895323</v>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.601336302895323</v>
+        <v>0.603563474387528</v>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.603563474387528</v>
+        <v>0.605790645879733</v>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.605790645879733</v>
+        <v>0.608017817371938</v>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.608017817371938</v>
+        <v>0.610244988864143</v>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.610244988864143</v>
+        <v>0.612472160356347</v>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.612472160356347</v>
+        <v>0.614699331848552</v>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.614699331848552</v>
+        <v>0.616926503340757</v>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.616926503340757</v>
+        <v>0.619153674832962</v>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.619153674832962</v>
+        <v>0.621380846325167</v>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.621380846325167</v>
+        <v>0.623608017817372</v>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.623608017817372</v>
+        <v>0.625835189309577</v>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0.989130434782609</v>
       </c>
     </row>
     <row r="369">
@@ -3327,7 +3327,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.634743875278396</v>
+        <v>0.636971046770601</v>
       </c>
       <c r="B373" t="n">
         <v>1</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.636971046770601</v>
+        <v>0.639198218262806</v>
       </c>
       <c r="B374" t="n">
         <v>1</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.639198218262806</v>
+        <v>0.641425389755011</v>
       </c>
       <c r="B375" t="n">
         <v>1</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.641425389755011</v>
+        <v>0.643652561247216</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.643652561247216</v>
+        <v>0.645879732739421</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.645879732739421</v>
+        <v>0.648106904231626</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.648106904231626</v>
+        <v>0.650334075723831</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.650334075723831</v>
+        <v>0.652561247216036</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.652561247216036</v>
+        <v>0.65478841870824</v>
       </c>
       <c r="B381" t="n">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.654788418708241</v>
+        <v>0.657015590200445</v>
       </c>
       <c r="B382" t="n">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.657015590200445</v>
+        <v>0.65924276169265</v>
       </c>
       <c r="B383" t="n">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.65924276169265</v>
+        <v>0.661469933184855</v>
       </c>
       <c r="B384" t="n">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.661469933184855</v>
+        <v>0.66369710467706</v>
       </c>
       <c r="B385" t="n">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.66369710467706</v>
+        <v>0.665924276169265</v>
       </c>
       <c r="B386" t="n">
         <v>1</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.665924276169265</v>
+        <v>0.66815144766147</v>
       </c>
       <c r="B387" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.677060133630289</v>
+        <v>0.67706013363029</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.743875278396437</v>
+        <v>0.741648106904232</v>
       </c>
       <c r="B420" t="n">
         <v>1</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.746102449888641</v>
+        <v>0.743875278396437</v>
       </c>
       <c r="B421" t="n">
         <v>1</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.748329621380846</v>
+        <v>0.746102449888641</v>
       </c>
       <c r="B422" t="n">
         <v>1</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.750556792873051</v>
+        <v>0.748329621380846</v>
       </c>
       <c r="B423" t="n">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.752783964365256</v>
+        <v>0.750556792873051</v>
       </c>
       <c r="B424" t="n">
         <v>1</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.790645879732739</v>
+        <v>0.79064587973274</v>
       </c>
       <c r="B441" t="n">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.913140311804009</v>
+        <v>0.910913140311804</v>
       </c>
       <c r="B495" t="n">
         <v>1</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.915367483296214</v>
+        <v>0.913140311804009</v>
       </c>
       <c r="B496" t="n">
         <v>1</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.917594654788419</v>
+        <v>0.915367483296214</v>
       </c>
       <c r="B497" t="n">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.919821826280624</v>
+        <v>0.917594654788419</v>
       </c>
       <c r="B498" t="n">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.922048997772829</v>
+        <v>0.919821826280624</v>
       </c>
       <c r="B499" t="n">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.924276169265033</v>
+        <v>0.922048997772829</v>
       </c>
       <c r="B500" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.926503340757238</v>
+        <v>0.924276169265033</v>
       </c>
       <c r="B501" t="n">
         <v>1</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.928730512249443</v>
+        <v>0.926503340757238</v>
       </c>
       <c r="B502" t="n">
         <v>1</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.930957683741648</v>
+        <v>0.928730512249443</v>
       </c>
       <c r="B503" t="n">
         <v>1</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.933184855233853</v>
+        <v>0.930957683741648</v>
       </c>
       <c r="B504" t="n">
         <v>1</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.935412026726058</v>
+        <v>0.933184855233853</v>
       </c>
       <c r="B505" t="n">
         <v>1</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.937639198218263</v>
+        <v>0.935412026726058</v>
       </c>
       <c r="B506" t="n">
         <v>1</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.939866369710468</v>
+        <v>0.937639198218263</v>
       </c>
       <c r="B507" t="n">
         <v>1</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.942093541202673</v>
+        <v>0.939866369710468</v>
       </c>
       <c r="B508" t="n">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0.944320712694877</v>
+        <v>0.942093541202673</v>
       </c>
       <c r="B509" t="n">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.946547884187082</v>
+        <v>0.944320712694877</v>
       </c>
       <c r="B510" t="n">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.948775055679287</v>
+        <v>0.946547884187082</v>
       </c>
       <c r="B511" t="n">
         <v>1</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.951002227171492</v>
+        <v>0.948775055679287</v>
       </c>
       <c r="B512" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.953229398663697</v>
+        <v>0.951002227171492</v>
       </c>
       <c r="B513" t="n">
         <v>1</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.955456570155902</v>
+        <v>0.953229398663697</v>
       </c>
       <c r="B514" t="n">
         <v>1</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.957683741648107</v>
+        <v>0.955456570155902</v>
       </c>
       <c r="B515" t="n">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.959910913140312</v>
+        <v>0.957683741648107</v>
       </c>
       <c r="B516" t="n">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.962138084632517</v>
+        <v>0.959910913140312</v>
       </c>
       <c r="B517" t="n">
         <v>1</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.964365256124722</v>
+        <v>0.962138084632517</v>
       </c>
       <c r="B518" t="n">
         <v>1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.966592427616927</v>
+        <v>0.964365256124722</v>
       </c>
       <c r="B519" t="n">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.968819599109131</v>
+        <v>0.966592427616927</v>
       </c>
       <c r="B520" t="n">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.971046770601336</v>
+        <v>0.968819599109131</v>
       </c>
       <c r="B521" t="n">
         <v>1</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.973273942093541</v>
+        <v>0.971046770601336</v>
       </c>
       <c r="B522" t="n">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.975501113585746</v>
+        <v>0.973273942093541</v>
       </c>
       <c r="B523" t="n">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.977728285077951</v>
+        <v>0.975501113585746</v>
       </c>
       <c r="B524" t="n">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.979955456570156</v>
+        <v>0.977728285077951</v>
       </c>
       <c r="B525" t="n">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0.982182628062361</v>
+        <v>0.979955456570156</v>
       </c>
       <c r="B526" t="n">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.984409799554566</v>
+        <v>0.982182628062361</v>
       </c>
       <c r="B527" t="n">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.986636971046771</v>
+        <v>0.984409799554566</v>
       </c>
       <c r="B528" t="n">
         <v>1</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.988864142538975</v>
+        <v>0.986636971046771</v>
       </c>
       <c r="B529" t="n">
         <v>1</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.99109131403118</v>
+        <v>0.988864142538975</v>
       </c>
       <c r="B530" t="n">
         <v>1</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.993318485523385</v>
+        <v>0.99109131403118</v>
       </c>
       <c r="B531" t="n">
         <v>1</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.99554565701559</v>
+        <v>0.993318485523385</v>
       </c>
       <c r="B532" t="n">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.997772828507795</v>
+        <v>0.99554565701559</v>
       </c>
       <c r="B533" t="n">
         <v>1</v>

--- a/web_prototype/ROC_test.xlsx
+++ b/web_prototype/ROC_test.xlsx
@@ -370,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0108695652173913</v>
+        <v>0.0217391304347826</v>
       </c>
     </row>
     <row r="4">
@@ -378,7 +378,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0326086956521739</v>
       </c>
     </row>
     <row r="5">
@@ -386,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0326086956521739</v>
+        <v>0.0543478260869565</v>
       </c>
     </row>
     <row r="6">
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.0652173913043478</v>
       </c>
     </row>
     <row r="7">
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0543478260869565</v>
+        <v>0.0760869565217391</v>
       </c>
     </row>
     <row r="8">
@@ -410,7 +410,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.0869565217391304</v>
       </c>
     </row>
     <row r="9">
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0760869565217391</v>
+        <v>0.0978260869565217</v>
       </c>
     </row>
     <row r="10">
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="11">
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.108695652173913</v>
+        <v>0.119565217391304</v>
       </c>
     </row>
     <row r="12">
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.119565217391304</v>
+        <v>0.130434782608696</v>
       </c>
     </row>
     <row r="13">
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130434782608696</v>
+        <v>0.141304347826087</v>
       </c>
     </row>
     <row r="14">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.141304347826087</v>
+        <v>0.152173913043478</v>
       </c>
     </row>
     <row r="15">
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.152173913043478</v>
+        <v>0.16304347826087</v>
       </c>
     </row>
     <row r="16">
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.16304347826087</v>
+        <v>0.173913043478261</v>
       </c>
     </row>
     <row r="17">
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173913043478261</v>
+        <v>0.184782608695652</v>
       </c>
     </row>
     <row r="18">
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.184782608695652</v>
+        <v>0.195652173913043</v>
       </c>
     </row>
     <row r="19">
@@ -631,26 +631,26 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0022271714922049</v>
+        <v>0.0044543429844098</v>
       </c>
       <c r="B36" t="n">
-        <v>0.380434782608696</v>
+        <v>0.369565217391304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.0022271714922049</v>
+        <v>0.0044543429844098</v>
       </c>
       <c r="B37" t="n">
-        <v>0.391304347826087</v>
+        <v>0.380434782608696</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0022271714922049</v>
+        <v>0.0044543429844098</v>
       </c>
       <c r="B38" t="n">
-        <v>0.402173913043478</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="39">
@@ -687,10 +687,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0044543429844098</v>
+        <v>0.0066815144766147</v>
       </c>
       <c r="B43" t="n">
-        <v>0.445652173913043</v>
+        <v>0.434782608695652</v>
       </c>
     </row>
     <row r="44">
@@ -711,18 +711,18 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0089086859688196</v>
+        <v>0.0111358574610245</v>
       </c>
       <c r="B46" t="n">
-        <v>0.456521739130435</v>
+        <v>0.445652173913043</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0089086859688196</v>
+        <v>0.0111358574610245</v>
       </c>
       <c r="B47" t="n">
-        <v>0.467391304347826</v>
+        <v>0.456521739130435</v>
       </c>
     </row>
     <row r="48">
@@ -759,10 +759,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.0111358574610245</v>
+        <v>0.0133630289532294</v>
       </c>
       <c r="B52" t="n">
-        <v>0.510869565217391</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53">
@@ -775,18 +775,18 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.0155902004454343</v>
+        <v>0.0133630289532294</v>
       </c>
       <c r="B54" t="n">
-        <v>0.510869565217391</v>
+        <v>0.521739130434783</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0155902004454343</v>
+        <v>0.0133630289532294</v>
       </c>
       <c r="B55" t="n">
-        <v>0.521739130434783</v>
+        <v>0.532608695652174</v>
       </c>
     </row>
     <row r="56">
@@ -799,18 +799,18 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.0178173719376392</v>
+        <v>0.0155902004454343</v>
       </c>
       <c r="B57" t="n">
-        <v>0.532608695652174</v>
+        <v>0.543478260869565</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.0200445434298441</v>
+        <v>0.0178173719376392</v>
       </c>
       <c r="B58" t="n">
-        <v>0.532608695652174</v>
+        <v>0.543478260869565</v>
       </c>
     </row>
     <row r="59">
@@ -823,186 +823,186 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.0200445434298441</v>
+        <v>0.022271714922049</v>
       </c>
       <c r="B60" t="n">
-        <v>0.554347826086957</v>
+        <v>0.543478260869565</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.022271714922049</v>
+        <v>0.0244988864142539</v>
       </c>
       <c r="B61" t="n">
-        <v>0.554347826086957</v>
+        <v>0.543478260869565</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.022271714922049</v>
+        <v>0.0267260579064588</v>
       </c>
       <c r="B62" t="n">
-        <v>0.565217391304348</v>
+        <v>0.543478260869565</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.022271714922049</v>
+        <v>0.0267260579064588</v>
       </c>
       <c r="B63" t="n">
-        <v>0.576086956521739</v>
+        <v>0.554347826086957</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.022271714922049</v>
+        <v>0.0289532293986637</v>
       </c>
       <c r="B64" t="n">
-        <v>0.58695652173913</v>
+        <v>0.554347826086957</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0244988864142539</v>
+        <v>0.0311804008908686</v>
       </c>
       <c r="B65" t="n">
-        <v>0.58695652173913</v>
+        <v>0.554347826086957</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.0267260579064588</v>
+        <v>0.0334075723830735</v>
       </c>
       <c r="B66" t="n">
-        <v>0.58695652173913</v>
+        <v>0.554347826086957</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0267260579064588</v>
+        <v>0.0334075723830735</v>
       </c>
       <c r="B67" t="n">
-        <v>0.597826086956522</v>
+        <v>0.565217391304348</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0289532293986637</v>
+        <v>0.0334075723830735</v>
       </c>
       <c r="B68" t="n">
-        <v>0.597826086956522</v>
+        <v>0.576086956521739</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.0289532293986637</v>
+        <v>0.0356347438752784</v>
       </c>
       <c r="B69" t="n">
-        <v>0.608695652173913</v>
+        <v>0.576086956521739</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0311804008908686</v>
+        <v>0.0356347438752784</v>
       </c>
       <c r="B70" t="n">
-        <v>0.608695652173913</v>
+        <v>0.58695652173913</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.0334075723830735</v>
+        <v>0.0378619153674833</v>
       </c>
       <c r="B71" t="n">
-        <v>0.608695652173913</v>
+        <v>0.58695652173913</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0334075723830735</v>
+        <v>0.0400890868596882</v>
       </c>
       <c r="B72" t="n">
-        <v>0.619565217391304</v>
+        <v>0.58695652173913</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.0356347438752784</v>
+        <v>0.0400890868596882</v>
       </c>
       <c r="B73" t="n">
-        <v>0.619565217391304</v>
+        <v>0.597826086956522</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.0378619153674833</v>
+        <v>0.0423162583518931</v>
       </c>
       <c r="B74" t="n">
-        <v>0.619565217391304</v>
+        <v>0.597826086956522</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.0378619153674833</v>
+        <v>0.044543429844098</v>
       </c>
       <c r="B75" t="n">
-        <v>0.630434782608696</v>
+        <v>0.597826086956522</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.0400890868596882</v>
+        <v>0.0467706013363029</v>
       </c>
       <c r="B76" t="n">
-        <v>0.630434782608696</v>
+        <v>0.597826086956522</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.0400890868596882</v>
+        <v>0.0467706013363029</v>
       </c>
       <c r="B77" t="n">
-        <v>0.641304347826087</v>
+        <v>0.608695652173913</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.0423162583518931</v>
+        <v>0.0467706013363029</v>
       </c>
       <c r="B78" t="n">
-        <v>0.641304347826087</v>
+        <v>0.619565217391304</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.0423162583518931</v>
+        <v>0.0467706013363029</v>
       </c>
       <c r="B79" t="n">
-        <v>0.652173913043478</v>
+        <v>0.630434782608696</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.044543429844098</v>
+        <v>0.0467706013363029</v>
       </c>
       <c r="B80" t="n">
-        <v>0.652173913043478</v>
+        <v>0.641304347826087</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0467706013363029</v>
+        <v>0.0489977728285078</v>
       </c>
       <c r="B81" t="n">
-        <v>0.652173913043478</v>
+        <v>0.641304347826087</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.0467706013363029</v>
+        <v>0.0489977728285078</v>
       </c>
       <c r="B82" t="n">
-        <v>0.66304347826087</v>
+        <v>0.652173913043478</v>
       </c>
     </row>
     <row r="83">
@@ -1023,346 +1023,346 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.0534521158129176</v>
+        <v>0.0512249443207127</v>
       </c>
       <c r="B85" t="n">
-        <v>0.66304347826087</v>
+        <v>0.673913043478261</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.0556792873051225</v>
+        <v>0.0512249443207127</v>
       </c>
       <c r="B86" t="n">
-        <v>0.66304347826087</v>
+        <v>0.684782608695652</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.0556792873051225</v>
+        <v>0.0534521158129176</v>
       </c>
       <c r="B87" t="n">
-        <v>0.673913043478261</v>
+        <v>0.684782608695652</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.0556792873051225</v>
+        <v>0.0534521158129176</v>
       </c>
       <c r="B88" t="n">
-        <v>0.684782608695652</v>
+        <v>0.695652173913043</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.0579064587973274</v>
+        <v>0.0556792873051225</v>
       </c>
       <c r="B89" t="n">
-        <v>0.684782608695652</v>
+        <v>0.695652173913043</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.0579064587973274</v>
+        <v>0.0556792873051225</v>
       </c>
       <c r="B90" t="n">
-        <v>0.695652173913043</v>
+        <v>0.706521739130435</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.0579064587973274</v>
+        <v>0.0556792873051225</v>
       </c>
       <c r="B91" t="n">
-        <v>0.706521739130435</v>
+        <v>0.717391304347826</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.0601336302895323</v>
+        <v>0.0556792873051225</v>
       </c>
       <c r="B92" t="n">
-        <v>0.706521739130435</v>
+        <v>0.728260869565217</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.0623608017817372</v>
+        <v>0.0579064587973274</v>
       </c>
       <c r="B93" t="n">
-        <v>0.706521739130435</v>
+        <v>0.728260869565217</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.0645879732739421</v>
+        <v>0.0601336302895323</v>
       </c>
       <c r="B94" t="n">
-        <v>0.706521739130435</v>
+        <v>0.728260869565217</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.066815144766147</v>
+        <v>0.0601336302895323</v>
       </c>
       <c r="B95" t="n">
-        <v>0.706521739130435</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.066815144766147</v>
+        <v>0.0623608017817372</v>
       </c>
       <c r="B96" t="n">
-        <v>0.717391304347826</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.0690423162583519</v>
+        <v>0.0645879732739421</v>
       </c>
       <c r="B97" t="n">
-        <v>0.717391304347826</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.0712694877505568</v>
+        <v>0.066815144766147</v>
       </c>
       <c r="B98" t="n">
-        <v>0.717391304347826</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.0734966592427617</v>
+        <v>0.0690423162583519</v>
       </c>
       <c r="B99" t="n">
-        <v>0.717391304347826</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.0734966592427617</v>
+        <v>0.0690423162583519</v>
       </c>
       <c r="B100" t="n">
-        <v>0.728260869565217</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.0734966592427617</v>
+        <v>0.0690423162583519</v>
       </c>
       <c r="B101" t="n">
-        <v>0.739130434782609</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.0757238307349666</v>
+        <v>0.0712694877505568</v>
       </c>
       <c r="B102" t="n">
-        <v>0.739130434782609</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.0779510022271715</v>
+        <v>0.0712694877505568</v>
       </c>
       <c r="B103" t="n">
-        <v>0.739130434782609</v>
+        <v>0.771739130434783</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.0801781737193764</v>
+        <v>0.0712694877505568</v>
       </c>
       <c r="B104" t="n">
-        <v>0.739130434782609</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.0801781737193764</v>
+        <v>0.0734966592427617</v>
       </c>
       <c r="B105" t="n">
-        <v>0.75</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.0824053452115813</v>
+        <v>0.0757238307349666</v>
       </c>
       <c r="B106" t="n">
-        <v>0.75</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.0846325167037862</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="B107" t="n">
-        <v>0.75</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.0868596881959911</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="B108" t="n">
-        <v>0.75</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.0868596881959911</v>
+        <v>0.0824053452115813</v>
       </c>
       <c r="B109" t="n">
-        <v>0.760869565217391</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.089086859688196</v>
+        <v>0.0846325167037862</v>
       </c>
       <c r="B110" t="n">
-        <v>0.760869565217391</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.0913140311804009</v>
+        <v>0.0868596881959911</v>
       </c>
       <c r="B111" t="n">
-        <v>0.760869565217391</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.0935412026726058</v>
+        <v>0.089086859688196</v>
       </c>
       <c r="B112" t="n">
-        <v>0.760869565217391</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.0957683741648107</v>
+        <v>0.0913140311804009</v>
       </c>
       <c r="B113" t="n">
-        <v>0.760869565217391</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.0979955456570156</v>
+        <v>0.0935412026726058</v>
       </c>
       <c r="B114" t="n">
-        <v>0.760869565217391</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.10022271714922</v>
+        <v>0.0957683741648107</v>
       </c>
       <c r="B115" t="n">
-        <v>0.760869565217391</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.102449888641425</v>
+        <v>0.0979955456570156</v>
       </c>
       <c r="B116" t="n">
-        <v>0.760869565217391</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.102449888641425</v>
+        <v>0.10022271714922</v>
       </c>
       <c r="B117" t="n">
-        <v>0.771739130434783</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.10467706013363</v>
+        <v>0.102449888641425</v>
       </c>
       <c r="B118" t="n">
-        <v>0.771739130434783</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.106904231625835</v>
+        <v>0.10467706013363</v>
       </c>
       <c r="B119" t="n">
-        <v>0.771739130434783</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.10913140311804</v>
+        <v>0.106904231625835</v>
       </c>
       <c r="B120" t="n">
-        <v>0.771739130434783</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.111358574610245</v>
+        <v>0.10913140311804</v>
       </c>
       <c r="B121" t="n">
-        <v>0.771739130434783</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.11358574610245</v>
+        <v>0.111358574610245</v>
       </c>
       <c r="B122" t="n">
-        <v>0.771739130434783</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.115812917594655</v>
+        <v>0.11358574610245</v>
       </c>
       <c r="B123" t="n">
-        <v>0.771739130434783</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.11804008908686</v>
+        <v>0.115812917594655</v>
       </c>
       <c r="B124" t="n">
-        <v>0.771739130434783</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.120267260579065</v>
+        <v>0.115812917594655</v>
       </c>
       <c r="B125" t="n">
-        <v>0.771739130434783</v>
+        <v>0.793478260869565</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.122494432071269</v>
+        <v>0.11804008908686</v>
       </c>
       <c r="B126" t="n">
-        <v>0.771739130434783</v>
+        <v>0.793478260869565</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.122494432071269</v>
+        <v>0.120267260579065</v>
       </c>
       <c r="B127" t="n">
-        <v>0.782608695652174</v>
+        <v>0.793478260869565</v>
       </c>
     </row>
     <row r="128">
@@ -1375,18 +1375,18 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.124721603563474</v>
+        <v>0.122494432071269</v>
       </c>
       <c r="B129" t="n">
-        <v>0.793478260869565</v>
+        <v>0.804347826086957</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.124721603563474</v>
+        <v>0.122494432071269</v>
       </c>
       <c r="B130" t="n">
-        <v>0.804347826086957</v>
+        <v>0.815217391304348</v>
       </c>
     </row>
     <row r="131">
@@ -1399,7 +1399,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.126948775055679</v>
+        <v>0.129175946547884</v>
       </c>
       <c r="B132" t="n">
         <v>0.815217391304348</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.126948775055679</v>
+        <v>0.129175946547884</v>
       </c>
       <c r="B133" t="n">
         <v>0.826086956521739</v>
@@ -1423,178 +1423,178 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.131403118040089</v>
+        <v>0.133630289532294</v>
       </c>
       <c r="B135" t="n">
-        <v>0.83695652173913</v>
+        <v>0.826086956521739</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.133630289532294</v>
+        <v>0.135857461024499</v>
       </c>
       <c r="B136" t="n">
-        <v>0.83695652173913</v>
+        <v>0.826086956521739</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.135857461024499</v>
+        <v>0.138084632516704</v>
       </c>
       <c r="B137" t="n">
-        <v>0.83695652173913</v>
+        <v>0.826086956521739</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.138084632516704</v>
+        <v>0.140311804008909</v>
       </c>
       <c r="B138" t="n">
-        <v>0.83695652173913</v>
+        <v>0.826086956521739</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.140311804008909</v>
+        <v>0.142538975501114</v>
       </c>
       <c r="B139" t="n">
-        <v>0.83695652173913</v>
+        <v>0.826086956521739</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.142538975501114</v>
+        <v>0.144766146993318</v>
       </c>
       <c r="B140" t="n">
-        <v>0.83695652173913</v>
+        <v>0.826086956521739</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.144766146993318</v>
+        <v>0.146993318485523</v>
       </c>
       <c r="B141" t="n">
-        <v>0.83695652173913</v>
+        <v>0.826086956521739</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.144766146993318</v>
+        <v>0.146993318485523</v>
       </c>
       <c r="B142" t="n">
-        <v>0.847826086956522</v>
+        <v>0.83695652173913</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.146993318485523</v>
+        <v>0.149220489977728</v>
       </c>
       <c r="B143" t="n">
-        <v>0.847826086956522</v>
+        <v>0.83695652173913</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.149220489977728</v>
+        <v>0.151447661469933</v>
       </c>
       <c r="B144" t="n">
-        <v>0.847826086956522</v>
+        <v>0.83695652173913</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.149220489977728</v>
+        <v>0.151447661469933</v>
       </c>
       <c r="B145" t="n">
-        <v>0.858695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.151447661469933</v>
+        <v>0.153674832962138</v>
       </c>
       <c r="B146" t="n">
-        <v>0.858695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.153674832962138</v>
+        <v>0.155902004454343</v>
       </c>
       <c r="B147" t="n">
-        <v>0.858695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.155902004454343</v>
+        <v>0.158129175946548</v>
       </c>
       <c r="B148" t="n">
-        <v>0.858695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.158129175946548</v>
+        <v>0.160356347438753</v>
       </c>
       <c r="B149" t="n">
-        <v>0.858695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.160356347438753</v>
+        <v>0.162583518930958</v>
       </c>
       <c r="B150" t="n">
-        <v>0.858695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.162583518930958</v>
+        <v>0.164810690423163</v>
       </c>
       <c r="B151" t="n">
-        <v>0.858695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.164810690423163</v>
+        <v>0.167037861915367</v>
       </c>
       <c r="B152" t="n">
-        <v>0.858695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.164810690423163</v>
+        <v>0.169265033407572</v>
       </c>
       <c r="B153" t="n">
-        <v>0.869565217391304</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.167037861915367</v>
+        <v>0.171492204899777</v>
       </c>
       <c r="B154" t="n">
-        <v>0.869565217391304</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.169265033407572</v>
+        <v>0.171492204899777</v>
       </c>
       <c r="B155" t="n">
-        <v>0.869565217391304</v>
+        <v>0.858695652173913</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.171492204899777</v>
+        <v>0.173719376391982</v>
       </c>
       <c r="B156" t="n">
-        <v>0.869565217391304</v>
+        <v>0.858695652173913</v>
       </c>
     </row>
     <row r="157">
@@ -1671,10 +1671,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.191536748329621</v>
+        <v>0.189309576837416</v>
       </c>
       <c r="B166" t="n">
-        <v>0.880434782608696</v>
+        <v>0.891304347826087</v>
       </c>
     </row>
     <row r="167">
@@ -1687,34 +1687,34 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.193763919821826</v>
+        <v>0.191536748329621</v>
       </c>
       <c r="B168" t="n">
-        <v>0.891304347826087</v>
+        <v>0.902173913043478</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.195991091314031</v>
+        <v>0.193763919821826</v>
       </c>
       <c r="B169" t="n">
-        <v>0.891304347826087</v>
+        <v>0.902173913043478</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.198218262806236</v>
+        <v>0.195991091314031</v>
       </c>
       <c r="B170" t="n">
-        <v>0.891304347826087</v>
+        <v>0.902173913043478</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.200445434298441</v>
+        <v>0.198218262806236</v>
       </c>
       <c r="B171" t="n">
-        <v>0.891304347826087</v>
+        <v>0.902173913043478</v>
       </c>
     </row>
     <row r="172">
@@ -1727,82 +1727,82 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.202672605790646</v>
+        <v>0.200445434298441</v>
       </c>
       <c r="B173" t="n">
-        <v>0.902173913043478</v>
+        <v>0.91304347826087</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.204899777282851</v>
+        <v>0.202672605790646</v>
       </c>
       <c r="B174" t="n">
-        <v>0.902173913043478</v>
+        <v>0.91304347826087</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.207126948775056</v>
+        <v>0.202672605790646</v>
       </c>
       <c r="B175" t="n">
-        <v>0.902173913043478</v>
+        <v>0.923913043478261</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.209354120267261</v>
+        <v>0.204899777282851</v>
       </c>
       <c r="B176" t="n">
-        <v>0.902173913043478</v>
+        <v>0.923913043478261</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.209354120267261</v>
+        <v>0.207126948775056</v>
       </c>
       <c r="B177" t="n">
-        <v>0.91304347826087</v>
+        <v>0.923913043478261</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.211581291759465</v>
+        <v>0.209354120267261</v>
       </c>
       <c r="B178" t="n">
-        <v>0.91304347826087</v>
+        <v>0.923913043478261</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.21380846325167</v>
+        <v>0.211581291759465</v>
       </c>
       <c r="B179" t="n">
-        <v>0.91304347826087</v>
+        <v>0.923913043478261</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.216035634743875</v>
+        <v>0.21380846325167</v>
       </c>
       <c r="B180" t="n">
-        <v>0.91304347826087</v>
+        <v>0.923913043478261</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.21826280623608</v>
+        <v>0.216035634743875</v>
       </c>
       <c r="B181" t="n">
-        <v>0.91304347826087</v>
+        <v>0.923913043478261</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.220489977728285</v>
+        <v>0.21826280623608</v>
       </c>
       <c r="B182" t="n">
-        <v>0.91304347826087</v>
+        <v>0.923913043478261</v>
       </c>
     </row>
     <row r="183">
@@ -1831,10 +1831,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.2271714922049</v>
+        <v>0.224944320712695</v>
       </c>
       <c r="B186" t="n">
-        <v>0.923913043478261</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="187">
@@ -1903,186 +1903,186 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.242761692650334</v>
+        <v>0.247216035634744</v>
       </c>
       <c r="B195" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.244988864142539</v>
+        <v>0.249443207126949</v>
       </c>
       <c r="B196" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.247216035634744</v>
+        <v>0.251670378619154</v>
       </c>
       <c r="B197" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.249443207126949</v>
+        <v>0.253897550111359</v>
       </c>
       <c r="B198" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.251670378619154</v>
+        <v>0.256124721603563</v>
       </c>
       <c r="B199" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.253897550111359</v>
+        <v>0.258351893095768</v>
       </c>
       <c r="B200" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.256124721603563</v>
+        <v>0.260579064587973</v>
       </c>
       <c r="B201" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.258351893095768</v>
+        <v>0.262806236080178</v>
       </c>
       <c r="B202" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.260579064587973</v>
+        <v>0.265033407572383</v>
       </c>
       <c r="B203" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.262806236080178</v>
+        <v>0.267260579064588</v>
       </c>
       <c r="B204" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.265033407572383</v>
+        <v>0.269487750556793</v>
       </c>
       <c r="B205" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.267260579064588</v>
+        <v>0.271714922048998</v>
       </c>
       <c r="B206" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.269487750556793</v>
+        <v>0.276169265033408</v>
       </c>
       <c r="B207" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.273942093541203</v>
+        <v>0.278396436525612</v>
       </c>
       <c r="B208" t="n">
-        <v>0.945652173913043</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.273942093541203</v>
+        <v>0.280623608017817</v>
       </c>
       <c r="B209" t="n">
-        <v>0.956521739130435</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.276169265033408</v>
+        <v>0.282850779510022</v>
       </c>
       <c r="B210" t="n">
-        <v>0.956521739130435</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.278396436525612</v>
+        <v>0.285077951002227</v>
       </c>
       <c r="B211" t="n">
-        <v>0.956521739130435</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.280623608017817</v>
+        <v>0.287305122494432</v>
       </c>
       <c r="B212" t="n">
-        <v>0.956521739130435</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.282850779510022</v>
+        <v>0.289532293986637</v>
       </c>
       <c r="B213" t="n">
-        <v>0.956521739130435</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.285077951002227</v>
+        <v>0.291759465478842</v>
       </c>
       <c r="B214" t="n">
-        <v>0.956521739130435</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.289532293986637</v>
+        <v>0.293986636971047</v>
       </c>
       <c r="B215" t="n">
-        <v>0.956521739130435</v>
+        <v>0.934782608695652</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.291759465478842</v>
+        <v>0.293986636971047</v>
       </c>
       <c r="B216" t="n">
-        <v>0.956521739130435</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.293986636971047</v>
+        <v>0.296213808463252</v>
       </c>
       <c r="B217" t="n">
-        <v>0.956521739130435</v>
+        <v>0.945652173913043</v>
       </c>
     </row>
     <row r="218">
@@ -2135,18 +2135,18 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.307349665924276</v>
+        <v>0.309576837416481</v>
       </c>
       <c r="B224" t="n">
-        <v>0.967391304347826</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.309576837416481</v>
+        <v>0.311804008908686</v>
       </c>
       <c r="B225" t="n">
-        <v>0.967391304347826</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="226">
@@ -2263,338 +2263,338 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.342984409799555</v>
+        <v>0.34075723830735</v>
       </c>
       <c r="B240" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.345211581291759</v>
+        <v>0.342984409799555</v>
       </c>
       <c r="B241" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.347438752783964</v>
+        <v>0.345211581291759</v>
       </c>
       <c r="B242" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.349665924276169</v>
+        <v>0.347438752783964</v>
       </c>
       <c r="B243" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.351893095768374</v>
+        <v>0.349665924276169</v>
       </c>
       <c r="B244" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.354120267260579</v>
+        <v>0.351893095768374</v>
       </c>
       <c r="B245" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.356347438752784</v>
+        <v>0.354120267260579</v>
       </c>
       <c r="B246" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.358574610244989</v>
+        <v>0.356347438752784</v>
       </c>
       <c r="B247" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.360801781737194</v>
+        <v>0.358574610244989</v>
       </c>
       <c r="B248" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.363028953229399</v>
+        <v>0.360801781737194</v>
       </c>
       <c r="B249" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.365256124721604</v>
+        <v>0.363028953229399</v>
       </c>
       <c r="B250" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.367483296213808</v>
+        <v>0.365256124721604</v>
       </c>
       <c r="B251" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.369710467706013</v>
+        <v>0.367483296213808</v>
       </c>
       <c r="B252" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.371937639198218</v>
+        <v>0.369710467706013</v>
       </c>
       <c r="B253" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.374164810690423</v>
+        <v>0.371937639198218</v>
       </c>
       <c r="B254" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.376391982182628</v>
+        <v>0.374164810690423</v>
       </c>
       <c r="B255" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.378619153674833</v>
+        <v>0.376391982182628</v>
       </c>
       <c r="B256" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.380846325167038</v>
+        <v>0.378619153674833</v>
       </c>
       <c r="B257" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.383073496659243</v>
+        <v>0.380846325167038</v>
       </c>
       <c r="B258" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.385300668151448</v>
+        <v>0.383073496659243</v>
       </c>
       <c r="B259" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.387527839643653</v>
+        <v>0.385300668151448</v>
       </c>
       <c r="B260" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.389755011135857</v>
+        <v>0.387527839643653</v>
       </c>
       <c r="B261" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.391982182628062</v>
+        <v>0.389755011135857</v>
       </c>
       <c r="B262" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.394209354120267</v>
+        <v>0.391982182628062</v>
       </c>
       <c r="B263" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.396436525612472</v>
+        <v>0.394209354120267</v>
       </c>
       <c r="B264" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.398663697104677</v>
+        <v>0.396436525612472</v>
       </c>
       <c r="B265" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.400890868596882</v>
+        <v>0.398663697104677</v>
       </c>
       <c r="B266" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.403118040089087</v>
+        <v>0.400890868596882</v>
       </c>
       <c r="B267" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.405345211581292</v>
+        <v>0.403118040089087</v>
       </c>
       <c r="B268" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.407572383073497</v>
+        <v>0.405345211581292</v>
       </c>
       <c r="B269" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.409799554565702</v>
+        <v>0.407572383073497</v>
       </c>
       <c r="B270" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.412026726057906</v>
+        <v>0.409799554565702</v>
       </c>
       <c r="B271" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.414253897550111</v>
+        <v>0.412026726057906</v>
       </c>
       <c r="B272" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.416481069042316</v>
+        <v>0.414253897550111</v>
       </c>
       <c r="B273" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.418708240534521</v>
+        <v>0.416481069042316</v>
       </c>
       <c r="B274" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.420935412026726</v>
+        <v>0.418708240534521</v>
       </c>
       <c r="B275" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.423162583518931</v>
+        <v>0.420935412026726</v>
       </c>
       <c r="B276" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.425389755011136</v>
+        <v>0.423162583518931</v>
       </c>
       <c r="B277" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.427616926503341</v>
+        <v>0.425389755011136</v>
       </c>
       <c r="B278" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.429844097995546</v>
+        <v>0.427616926503341</v>
       </c>
       <c r="B279" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.432071269487751</v>
+        <v>0.429844097995546</v>
       </c>
       <c r="B280" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.434298440979955</v>
+        <v>0.432071269487751</v>
       </c>
       <c r="B281" t="n">
-        <v>0.967391304347826</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="282">
@@ -2823,26 +2823,26 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.494432071269488</v>
+        <v>0.496659242761693</v>
       </c>
       <c r="B310" t="n">
-        <v>0.989130434782609</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.496659242761693</v>
+        <v>0.498886414253898</v>
       </c>
       <c r="B311" t="n">
-        <v>0.989130434782609</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.498886414253898</v>
+        <v>0.501113585746102</v>
       </c>
       <c r="B312" t="n">
-        <v>0.989130434782609</v>
+        <v>0.978260869565217</v>
       </c>
     </row>
     <row r="313">
@@ -3087,7 +3087,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.56792873051225</v>
+        <v>0.567928730512249</v>
       </c>
       <c r="B343" t="n">
         <v>0.989130434782609</v>
@@ -3103,194 +3103,194 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.572383073496659</v>
+        <v>0.570155902004454</v>
       </c>
       <c r="B345" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.574610244988864</v>
+        <v>0.572383073496659</v>
       </c>
       <c r="B346" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.576837416481069</v>
+        <v>0.574610244988864</v>
       </c>
       <c r="B347" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.579064587973274</v>
+        <v>0.576837416481069</v>
       </c>
       <c r="B348" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.581291759465479</v>
+        <v>0.579064587973274</v>
       </c>
       <c r="B349" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.583518930957684</v>
+        <v>0.581291759465479</v>
       </c>
       <c r="B350" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.585746102449889</v>
+        <v>0.583518930957684</v>
       </c>
       <c r="B351" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.587973273942094</v>
+        <v>0.585746102449889</v>
       </c>
       <c r="B352" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.590200445434298</v>
+        <v>0.587973273942094</v>
       </c>
       <c r="B353" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.594654788418708</v>
+        <v>0.592427616926503</v>
       </c>
       <c r="B354" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.596881959910913</v>
+        <v>0.594654788418708</v>
       </c>
       <c r="B355" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.599109131403118</v>
+        <v>0.596881959910913</v>
       </c>
       <c r="B356" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.601336302895323</v>
+        <v>0.599109131403118</v>
       </c>
       <c r="B357" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.603563474387528</v>
+        <v>0.601336302895323</v>
       </c>
       <c r="B358" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.605790645879733</v>
+        <v>0.603563474387528</v>
       </c>
       <c r="B359" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.608017817371938</v>
+        <v>0.605790645879733</v>
       </c>
       <c r="B360" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.610244988864143</v>
+        <v>0.608017817371938</v>
       </c>
       <c r="B361" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.612472160356347</v>
+        <v>0.610244988864143</v>
       </c>
       <c r="B362" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.614699331848552</v>
+        <v>0.612472160356347</v>
       </c>
       <c r="B363" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.616926503340757</v>
+        <v>0.614699331848552</v>
       </c>
       <c r="B364" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.619153674832962</v>
+        <v>0.616926503340757</v>
       </c>
       <c r="B365" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.621380846325167</v>
+        <v>0.619153674832962</v>
       </c>
       <c r="B366" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.623608017817372</v>
+        <v>0.621380846325167</v>
       </c>
       <c r="B367" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.625835189309577</v>
+        <v>0.623608017817372</v>
       </c>
       <c r="B368" t="n">
-        <v>0.989130434782609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -3327,7 +3327,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.636971046770601</v>
+        <v>0.634743875278396</v>
       </c>
       <c r="B373" t="n">
         <v>1</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.639198218262806</v>
+        <v>0.636971046770601</v>
       </c>
       <c r="B374" t="n">
         <v>1</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.641425389755011</v>
+        <v>0.639198218262806</v>
       </c>
       <c r="B375" t="n">
         <v>1</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.643652561247216</v>
+        <v>0.641425389755011</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.645879732739421</v>
+        <v>0.643652561247216</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.648106904231626</v>
+        <v>0.645879732739421</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.650334075723831</v>
+        <v>0.648106904231626</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.652561247216036</v>
+        <v>0.650334075723831</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.65478841870824</v>
+        <v>0.652561247216036</v>
       </c>
       <c r="B381" t="n">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.657015590200445</v>
+        <v>0.654788418708241</v>
       </c>
       <c r="B382" t="n">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.65924276169265</v>
+        <v>0.657015590200445</v>
       </c>
       <c r="B383" t="n">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.661469933184855</v>
+        <v>0.65924276169265</v>
       </c>
       <c r="B384" t="n">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.66369710467706</v>
+        <v>0.661469933184855</v>
       </c>
       <c r="B385" t="n">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.665924276169265</v>
+        <v>0.66369710467706</v>
       </c>
       <c r="B386" t="n">
         <v>1</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.66815144766147</v>
+        <v>0.665924276169265</v>
       </c>
       <c r="B387" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.67706013363029</v>
+        <v>0.677060133630289</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.741648106904232</v>
+        <v>0.743875278396437</v>
       </c>
       <c r="B420" t="n">
         <v>1</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.743875278396437</v>
+        <v>0.746102449888641</v>
       </c>
       <c r="B421" t="n">
         <v>1</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.746102449888641</v>
+        <v>0.748329621380846</v>
       </c>
       <c r="B422" t="n">
         <v>1</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.748329621380846</v>
+        <v>0.750556792873051</v>
       </c>
       <c r="B423" t="n">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.750556792873051</v>
+        <v>0.752783964365256</v>
       </c>
       <c r="B424" t="n">
         <v>1</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.79064587973274</v>
+        <v>0.790645879732739</v>
       </c>
       <c r="B441" t="n">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.910913140311804</v>
+        <v>0.913140311804009</v>
       </c>
       <c r="B495" t="n">
         <v>1</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.913140311804009</v>
+        <v>0.915367483296214</v>
       </c>
       <c r="B496" t="n">
         <v>1</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.915367483296214</v>
+        <v>0.917594654788419</v>
       </c>
       <c r="B497" t="n">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.917594654788419</v>
+        <v>0.919821826280624</v>
       </c>
       <c r="B498" t="n">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.919821826280624</v>
+        <v>0.922048997772829</v>
       </c>
       <c r="B499" t="n">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.922048997772829</v>
+        <v>0.924276169265033</v>
       </c>
       <c r="B500" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.924276169265033</v>
+        <v>0.926503340757238</v>
       </c>
       <c r="B501" t="n">
         <v>1</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.926503340757238</v>
+        <v>0.928730512249443</v>
       </c>
       <c r="B502" t="n">
         <v>1</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.928730512249443</v>
+        <v>0.930957683741648</v>
       </c>
       <c r="B503" t="n">
         <v>1</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.930957683741648</v>
+        <v>0.933184855233853</v>
       </c>
       <c r="B504" t="n">
         <v>1</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.933184855233853</v>
+        <v>0.935412026726058</v>
       </c>
       <c r="B505" t="n">
         <v>1</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.935412026726058</v>
+        <v>0.937639198218263</v>
       </c>
       <c r="B506" t="n">
         <v>1</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.937639198218263</v>
+        <v>0.939866369710468</v>
       </c>
       <c r="B507" t="n">
         <v>1</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.939866369710468</v>
+        <v>0.942093541202673</v>
       </c>
       <c r="B508" t="n">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0.942093541202673</v>
+        <v>0.944320712694877</v>
       </c>
       <c r="B509" t="n">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.944320712694877</v>
+        <v>0.946547884187082</v>
       </c>
       <c r="B510" t="n">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.946547884187082</v>
+        <v>0.948775055679287</v>
       </c>
       <c r="B511" t="n">
         <v>1</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.948775055679287</v>
+        <v>0.951002227171492</v>
       </c>
       <c r="B512" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.951002227171492</v>
+        <v>0.953229398663697</v>
       </c>
       <c r="B513" t="n">
         <v>1</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.953229398663697</v>
+        <v>0.955456570155902</v>
       </c>
       <c r="B514" t="n">
         <v>1</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.955456570155902</v>
+        <v>0.957683741648107</v>
       </c>
       <c r="B515" t="n">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.957683741648107</v>
+        <v>0.959910913140312</v>
       </c>
       <c r="B516" t="n">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.959910913140312</v>
+        <v>0.962138084632517</v>
       </c>
       <c r="B517" t="n">
         <v>1</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.962138084632517</v>
+        <v>0.964365256124722</v>
       </c>
       <c r="B518" t="n">
         <v>1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.964365256124722</v>
+        <v>0.966592427616927</v>
       </c>
       <c r="B519" t="n">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.966592427616927</v>
+        <v>0.968819599109131</v>
       </c>
       <c r="B520" t="n">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.968819599109131</v>
+        <v>0.971046770601336</v>
       </c>
       <c r="B521" t="n">
         <v>1</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.971046770601336</v>
+        <v>0.973273942093541</v>
       </c>
       <c r="B522" t="n">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.973273942093541</v>
+        <v>0.975501113585746</v>
       </c>
       <c r="B523" t="n">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.975501113585746</v>
+        <v>0.977728285077951</v>
       </c>
       <c r="B524" t="n">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.977728285077951</v>
+        <v>0.979955456570156</v>
       </c>
       <c r="B525" t="n">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0.979955456570156</v>
+        <v>0.982182628062361</v>
       </c>
       <c r="B526" t="n">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.982182628062361</v>
+        <v>0.984409799554566</v>
       </c>
       <c r="B527" t="n">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.984409799554566</v>
+        <v>0.986636971046771</v>
       </c>
       <c r="B528" t="n">
         <v>1</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.986636971046771</v>
+        <v>0.988864142538975</v>
       </c>
       <c r="B529" t="n">
         <v>1</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.988864142538975</v>
+        <v>0.99109131403118</v>
       </c>
       <c r="B530" t="n">
         <v>1</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.99109131403118</v>
+        <v>0.993318485523385</v>
       </c>
       <c r="B531" t="n">
         <v>1</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.993318485523385</v>
+        <v>0.99554565701559</v>
       </c>
       <c r="B532" t="n">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.99554565701559</v>
+        <v>0.997772828507795</v>
       </c>
       <c r="B533" t="n">
         <v>1</v>
